--- a/medicine/Mort/Richard_Bernard_Moore/Richard_Bernard_Moore.xlsx
+++ b/medicine/Mort/Richard_Bernard_Moore/Richard_Bernard_Moore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Richard Bernard Moore (né le 20 février 1965) est un homme américain dans le couloir de la mort en Caroline du Sud qui doit être exécuté. Il a été reconnu coupable du meurtre en septembre 1999 du commis de dépanneur James Mahoney à Spartanburg, en Caroline du Sud. Son cas a attiré l'intention du fait qu'il devrait devenir la première personne à être exécutée en Caroline du Sud depuis plus d’une décennie, ainsi que la première personne à être exécutée par un peloton d’exécution en vertu des nouvelles lois de l'état sur la peine capitale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richard Bernard Moore (né le 20 février 1965) est un homme américain dans le couloir de la mort en Caroline du Sud qui doit être exécuté. Il a été reconnu coupable du meurtre en septembre 1999 du commis de dépanneur James Mahoney à Spartanburg, en Caroline du Sud. Son cas a attiré l'intention du fait qu'il devrait devenir la première personne à être exécutée en Caroline du Sud depuis plus d’une décennie, ainsi que la première personne à être exécutée par un peloton d’exécution en vertu des nouvelles lois de l'état sur la peine capitale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Crime</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 16 septembre 1999, au petit matin, Moore est entré dans le dépanneur Nikki à Spartanburg. À l’intérieur du magasin se trouvaient le commis, James Mahoney, 42 ans, et un témoin oculaire du crime, Terry Hadden. Alors que Hadden jouait sur une machine de vidéo poker, il a vu Moore se diriger vers la glacière à l’intérieur du magasin. Il entendit alors Mahoney crier sur Moore et lui demander ce qu’il faisait. Hadden se retourna pour voir Moore et Mahoney dans une bagarre, Moore tenant les deux mains de Mahoney avec une seule des siennes. Mahoney avait tiré un pistolet sur Moore et les deux se sont disputés, Moore s’emparant de l’arme avec son autre main. Moore tourna son attention vers Hadden et pointa l’arme sur lui, lui disant de ne pas bouger. Le pistolet a ensuite été tiré et Hadden est tombé au sol en faisant semblant d’être mort. Mahoney a ensuite sorti un deuxième pistolet et plusieurs autres coups de feu ont été tirés. Mahoney a tiré sur Moore dans le bras tandis que Moore a tiré sur Mahoney dans la poitrine. Après que Moore ait fait le tour du magasin en laissant une traînée de sang derrière lui, moore s’est enfui du magasin et est parti dans sa camionnette. Hadden se leva et vit Mahoney allongé face contre terre sur le sol, avec un pistolet près de sa main[2]. Moore se fera arrêté quelque heure plus tard[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 16 septembre 1999, au petit matin, Moore est entré dans le dépanneur Nikki à Spartanburg. À l’intérieur du magasin se trouvaient le commis, James Mahoney, 42 ans, et un témoin oculaire du crime, Terry Hadden. Alors que Hadden jouait sur une machine de vidéo poker, il a vu Moore se diriger vers la glacière à l’intérieur du magasin. Il entendit alors Mahoney crier sur Moore et lui demander ce qu’il faisait. Hadden se retourna pour voir Moore et Mahoney dans une bagarre, Moore tenant les deux mains de Mahoney avec une seule des siennes. Mahoney avait tiré un pistolet sur Moore et les deux se sont disputés, Moore s’emparant de l’arme avec son autre main. Moore tourna son attention vers Hadden et pointa l’arme sur lui, lui disant de ne pas bouger. Le pistolet a ensuite été tiré et Hadden est tombé au sol en faisant semblant d’être mort. Mahoney a ensuite sorti un deuxième pistolet et plusieurs autres coups de feu ont été tirés. Mahoney a tiré sur Moore dans le bras tandis que Moore a tiré sur Mahoney dans la poitrine. Après que Moore ait fait le tour du magasin en laissant une traînée de sang derrière lui, moore s’est enfui du magasin et est parti dans sa camionnette. Hadden se leva et vit Mahoney allongé face contre terre sur le sol, avec un pistolet près de sa main. Moore se fera arrêté quelque heure plus tard.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Procès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moore a été jugé pour avoir tiré et tué Mahoney en octobre 2001. Il a été reconnu coupable et dans une procédure distincte de détermination de la peine, le jury a recommandé une peine de mort. Moore a ensuite été officiellement condamné à mort pour le meurtre de Mahoney le 22 octobre 2001[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moore a été jugé pour avoir tiré et tué Mahoney en octobre 2001. Il a été reconnu coupable et dans une procédure distincte de détermination de la peine, le jury a recommandé une peine de mort. Moore a ensuite été officiellement condamné à mort pour le meurtre de Mahoney le 22 octobre 2001.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Couloir de la mort</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moore devait d’abord être exécuté le 4 décembre 2020. Cependant, l’État n’a pas été en mesure de l’exécuter car ils n’avaient pas les drogues injectables létales nécessaires pour le faire. Moore a eu le choix entre l’injection létale ou la chaise électrique. Il a refusé de choisir l’un ou l’autre, ce qui signifie qu’il était sur le point de mourir par la principale méthode d’injection létale. Comme l’État n’avait pas la drogue disponible, son exécution a été suspendue. À la suite de cela, les législateurs de Caroline du Sud ont fait pression pour ajouter l’option d’exécution par peloton d’exécution, dans une tentative de reprendre les exécutions après un échec à obtenir les médicaments nécessaires pour l’injection létale. Un projet de loi donnait aux détenus le choix de mourir par électrocution ou par peloton d’exécution si les drogues injectables létales n’étaient pas disponibles. En mars 2022, l’État a annoncé qu’il avait fini d’élaborer des protocoles d’exécution par peloton d’exécution[4]. Moore devait être exécuté le 29 avril 2022. Il a choisi d’être exécuté par peloton d’exécution au lieu de la chaise électrique, le 15 avril 2022[5]. Le 20 avril 2022, il a reçu un sursis de la cour suprême[6].S'il se fait bien exécuter, il sera la première personne exécutée en Caroline du Sud depuis 2011, la première dans tous les Etats-Unis par arme à feu depuis 2010 et la première personne en Caroline du Sud par arme à feu[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moore devait d’abord être exécuté le 4 décembre 2020. Cependant, l’État n’a pas été en mesure de l’exécuter car ils n’avaient pas les drogues injectables létales nécessaires pour le faire. Moore a eu le choix entre l’injection létale ou la chaise électrique. Il a refusé de choisir l’un ou l’autre, ce qui signifie qu’il était sur le point de mourir par la principale méthode d’injection létale. Comme l’État n’avait pas la drogue disponible, son exécution a été suspendue. À la suite de cela, les législateurs de Caroline du Sud ont fait pression pour ajouter l’option d’exécution par peloton d’exécution, dans une tentative de reprendre les exécutions après un échec à obtenir les médicaments nécessaires pour l’injection létale. Un projet de loi donnait aux détenus le choix de mourir par électrocution ou par peloton d’exécution si les drogues injectables létales n’étaient pas disponibles. En mars 2022, l’État a annoncé qu’il avait fini d’élaborer des protocoles d’exécution par peloton d’exécution. Moore devait être exécuté le 29 avril 2022. Il a choisi d’être exécuté par peloton d’exécution au lieu de la chaise électrique, le 15 avril 2022. Le 20 avril 2022, il a reçu un sursis de la cour suprême.S'il se fait bien exécuter, il sera la première personne exécutée en Caroline du Sud depuis 2011, la première dans tous les Etats-Unis par arme à feu depuis 2010 et la première personne en Caroline du Sud par arme à feu.
 </t>
         </is>
       </c>
